--- a/src/attributions/attributions_ig_traj_314.xlsx
+++ b/src/attributions/attributions_ig_traj_314.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2393154834659055</v>
+        <v>0.1421825698540194</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08450906046357259</v>
+        <v>-0.1285335921211886</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02684082939744742</v>
+        <v>0.09799760050710242</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
@@ -1028,25 +1028,25 @@
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2025371791506611</v>
+        <v>0.1512598411973364</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.07872824525952013</v>
+        <v>-0.03947837465300065</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0532604941383259</v>
+        <v>0.06157238441841095</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1055,55 +1055,55 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07129596306509844</v>
+        <v>0.03503361503434215</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1108534195674715</v>
+        <v>0.1137750778042988</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1313884480559986</v>
+        <v>0.09919443329398833</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.008450221383132497</v>
+        <v>-0.08451020001721837</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.08245900082201894</v>
+        <v>-0.04872316865413782</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.05614039499821191</v>
+        <v>-0.01936034462616416</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -1112,22 +1112,22 @@
         <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1287017714810262</v>
+        <v>-0.0361793093830545</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.09243394686428176</v>
+        <v>-0.03305684023071611</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.008223733577860127</v>
+        <v>-0.0772390132790992</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>-0</v>
@@ -1136,37 +1136,37 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2193031017188188</v>
+        <v>0.1303383044105264</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.03536416631769076</v>
+        <v>-0.09581288633160839</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.08352746040476475</v>
+        <v>0.2787822074638125</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.09714531385515156</v>
+        <v>0.1943954045014266</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.07326669206523811</v>
+        <v>0.03070478785801391</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.008548368505152004</v>
+        <v>0.04153180979682465</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1190,79 +1190,79 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.04247685737430208</v>
+        <v>0.0765525857429586</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.0560598597259725</v>
+        <v>0.0479400578944628</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0525809011907254</v>
+        <v>0.1886285444255066</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1940071619366849</v>
+        <v>0.04184780835903857</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.0641714412859662</v>
+        <v>0.01435889594339419</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.04140548171926949</v>
+        <v>0.1452707118184026</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.09178842875212459</v>
+        <v>-0.03618838348701425</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.01599976545484583</v>
+        <v>-0.01416192217276806</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.02837157545957197</v>
+        <v>-0.03796488293523147</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>-0</v>
@@ -1271,49 +1271,49 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.02071642223088638</v>
+        <v>-0.05040047577711786</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.0102215804286485</v>
+        <v>-0.1123030998058894</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.05284390931011964</v>
+        <v>-0.08760851356791942</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.07666326875314536</v>
+        <v>-0.01496634220186168</v>
       </c>
       <c r="CW2" t="n">
         <v>-0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00893646218122324</v>
+        <v>0.01724506530483497</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.05619242008760602</v>
+        <v>-0.02724228930838036</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,61 +1328,61 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.008454093833113173</v>
+        <v>-0.02696971579277541</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.03633216098631734</v>
+        <v>0.09151145698031155</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02045530015043889</v>
+        <v>-0.0449451897890506</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0251106426584023</v>
+        <v>-0.06362288892862403</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.043429676218022</v>
+        <v>0.0552113184693578</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02731595230508437</v>
+        <v>-0.1067814253989213</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.03535714487607761</v>
+        <v>-0.07121658644081263</v>
       </c>
       <c r="DX2" t="n">
         <v>-0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.02454393686332322</v>
+        <v>-0.03355830707122646</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.03827876831081971</v>
+        <v>-0.1012391355342815</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
         <v>-0</v>
@@ -1409,25 +1409,25 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.1687215943281433</v>
+        <v>-0.03403087358055072</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.03954578323413789</v>
+        <v>0.04054620994193478</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01139744459850472</v>
+        <v>0.0272775782971152</v>
       </c>
       <c r="EK2" t="n">
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.04327379891141814</v>
+        <v>0.006900665209931929</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1445,16 +1445,16 @@
         <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.1329850092787206</v>
+        <v>0.04158658537213703</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.02726217030240915</v>
+        <v>0.03649618659852212</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.07882243249458178</v>
+        <v>-0.01987577799332894</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.008257505752378169</v>
+        <v>0.001465266569131017</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.05879632934411741</v>
+        <v>-0.03597672400863517</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>-0</v>
@@ -1487,22 +1487,22 @@
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.09928396814970217</v>
+        <v>-0.05443888042460984</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.126302389159637</v>
+        <v>0.03827840429617509</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.08170873907256759</v>
+        <v>-0.1917332662588294</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1517,34 +1517,34 @@
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.01573789776313054</v>
+        <v>0.008763025068204434</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.04705397480221648</v>
+        <v>-0.04878807284918669</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002659306753865642</v>
+        <v>0.07981827715379639</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.1206003052430701</v>
+        <v>0.02828101740985203</v>
       </c>
       <c r="FZ2" t="n">
         <v>0</v>
@@ -1553,30 +1553,30 @@
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.06161910920153472</v>
+        <v>-0.03992599779712361</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2711,52 +2711,52 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1501543000402507</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.3550222341779681</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.1083491228102015</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06458784444027311</v>
+        <v>-0.02908856710364221</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01710910971900097</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1243750069891033</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.215101049932739</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.1364174326713908</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.08571851444960178</v>
+        <v>-0.02197882413088149</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002469389962530044</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2765,52 +2765,52 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00398713343979723</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1037103856652867</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.009072630986332608</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.04210508658908332</v>
+        <v>0.1133123395851955</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.04551760950175898</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03509511121155888</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.04178221268168193</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>0.008072132093618175</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02084941808680246</v>
+        <v>-0.01907041006316944</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.04253550508868492</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -2819,133 +2819,133 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.04224637277009285</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.00161127804669002</v>
       </c>
       <c r="AM5" t="n">
         <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0.0668150588862086</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02305765853273701</v>
+        <v>-0.05262218079517091</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01434977000080593</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.123099530988205</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.3913604664885948</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0.03217396434085266</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.006365825526971459</v>
+        <v>0.1184177801912282</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.01667370958740551</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.04132872439544701</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.05234163817244458</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.1417034381362608</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.03363029627245162</v>
+        <v>-0.08773643566622721</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.008948547760781965</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.02467170548659706</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1029754828596132</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>0.06140422103252366</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.04258956739496942</v>
+        <v>0.1810537724234016</v>
       </c>
       <c r="BQ5" t="n">
         <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.009722678719330425</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.07897408487554911</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1398636219228022</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.02402296462042639</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.02170965755891186</v>
+        <v>0.06699368672365612</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01674246859402717</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,25 +2954,25 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.0502640909224197</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.1010068281367278</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>-0.006943772630448844</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01916763778233726</v>
+        <v>-0.01640247756530192</v>
       </c>
       <c r="CI5" t="n">
         <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.009753557575355416</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2981,106 +2981,106 @@
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.00842449183238495</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.007307932197828391</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.09726852286456415</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.02961502632388622</v>
+        <v>-0.05849722662840842</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.01342549586519175</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.04517563216060455</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.07138465848474622</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0.02839228966104916</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01293538422304326</v>
+        <v>-0.02041304324762506</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.007413383028661646</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.00387234710510868</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.03400962160302536</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.044686101213306</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.004781294293133904</v>
+        <v>0.07895636551591184</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0.002730605973094803</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001156869886300488</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.07834602596130223</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0.01619998304896742</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02828264236630511</v>
+        <v>-0.04311651495662873</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.02295567771095555</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
@@ -3089,160 +3089,160 @@
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.004124397076098445</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.08776206315411667</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.02149343577099977</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01437884100003002</v>
+        <v>0.01460154835553401</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.0004991661065325565</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.07232245879212225</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.09126386774163817</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0.01085087572118044</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.017810104072506</v>
+        <v>0.05686299998446913</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.02205098432412943</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.01160639229852672</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.007385145400823924</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0.0008256724344309547</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04603335328787557</v>
+        <v>0.03584764735390998</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0118020325105461</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.04283235660362441</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.0718236674784801</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0.01336727975048232</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.006944626006929475</v>
+        <v>0.01196032903680531</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.005642936754004983</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.05559591946375208</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.05552623381900759</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0</v>
+        <v>-0.01475234502649754</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01528423917143586</v>
+        <v>0.0330606517760535</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0.004727259354149267</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.01468489559930762</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.05701629621533687</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.006399970247550475</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.007165538152931729</v>
+        <v>-0.06151104926463345</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001584263403486295</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
         <v>0</v>
@@ -3251,51 +3251,51 @@
         <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.04107901330117291</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.06838052250279232</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0.133106598021819</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0324598510657171</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1798228527885375</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.09563754557912194</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.05338093609836212</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.005794158630538887</v>
+        <v>-0.02611365929440618</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.05314649407367218</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3307,106 +3307,106 @@
         <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1510713865276157</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.07254357021058531</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.05079089622377751</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.05650767410117486</v>
+        <v>-0.02043659777032576</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.04129768030222469</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>-0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005656469665154951</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.003921663091310741</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.01425882056516926</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.06438037617171591</v>
+        <v>-0.008223461075364652</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.01070041884961261</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01487360416101776</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0.009554807050206018</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.001325267633329013</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03244036402630218</v>
+        <v>0.01800060657805181</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.002052330334881764</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03602207985749507</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.001101783037154199</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.008501106540329475</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.0211326350813777</v>
+        <v>-0.01295020696859269</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.01058373235862832</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3415,103 +3415,103 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1121092712074151</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.08597842185070995</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0360863819592098</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02331337057862704</v>
+        <v>-0.01442821779413454</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01661329247217291</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.04972720378034745</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.02875714638025674</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.03682403108105965</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.00355124294498378</v>
+        <v>-0.03183951991102266</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.04895204489309409</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK6" t="n">
         <v>-0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.0163222718098575</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.03490307986516374</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.02867502452304284</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.06087578473374011</v>
+        <v>0.02095167787504897</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.01725614772929692</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.08238006595740181</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.03387061090312539</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.008035924016761896</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01857589680081737</v>
+        <v>-0.006005056340848221</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-4.290481660439534e-05</v>
       </c>
       <c r="CA6" t="n">
         <v>-0</v>
@@ -3523,319 +3523,319 @@
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.05247130224668709</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.01978106900244861</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.02444868752816636</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.004397149574079253</v>
+        <v>0.002598558183607901</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.01960855587048792</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.00801424028172667</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.0004836168814503677</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.001663974463936744</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.04873067069672765</v>
+        <v>0.004868521266502704</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.01502390354756369</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.04805593066133382</v>
+        <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.01566497053442286</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.02549865142893253</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.01091563993005291</v>
+        <v>0.004745245264798076</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.01971768244066367</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.009711900148297979</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.0134066732182603</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.02653373884192969</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.02712331640760497</v>
+        <v>0.02277180598826387</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.009396252256845506</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.002842396744413543</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.008809592822506778</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.003261060891259709</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.01855384327436656</v>
+        <v>0.01597183302846076</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.005513089456434641</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.001847270315524119</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.03775841033851258</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.007609792931312046</v>
+        <v>-0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.01452759762634597</v>
+        <v>0.01393831837297099</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.01278473356407653</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.07985665997661581</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.02137815282671264</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.02253308461968197</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.006974467140065124</v>
+        <v>0.004675475617747</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.01570128737287158</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.02200783706340547</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.01033508862550276</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.03277357388001442</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.007617515387169703</v>
+        <v>0.006595333825214555</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.0007459359622123896</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.04758094388507822</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.01588368567221396</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.02361513036821416</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.006669459045649454</v>
+        <v>0.009042815344744073</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.02370262360764342</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.04741620453170678</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.02618138370873152</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.0116113479423282</v>
+        <v>0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02226886230666397</v>
+        <v>0.009865117611435418</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01487797117935015</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.01144164564884483</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.001937042286958931</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.003816943367551775</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02447040810484871</v>
+        <v>-0.01845202975183627</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.008634514075669827</v>
       </c>
       <c r="FV6" t="n">
         <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.0303774409086822</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.005401869187417259</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0.0005664663785160164</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.00587007605804729</v>
       </c>
       <c r="GE6" t="n">
         <v>0</v>
@@ -3844,57 +3844,57 @@
         <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.14634891501285</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.4298655694601202</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1379925970400744</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0516670254867656</v>
+        <v>-0.02898728881564427</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02347248679648371</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1345890608653016</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.2806773974746499</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.1459973372451062</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.07591738834404647</v>
+        <v>-0.02313638394050577</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001357626265481726</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,52 +3903,52 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0144572388102093</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1086793530610886</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.01457340304247426</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.05819680395991171</v>
+        <v>0.1186343477652751</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.05207252950089702</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0157436030465341</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.03895121439654637</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0.004741122020611612</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01197493062515877</v>
+        <v>-0.013883691190485</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.04372811079958223</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -3957,160 +3957,160 @@
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.03751352193732163</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.006524039300323276</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.06847549428556782</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.01171772821615453</v>
+        <v>-0.04773710363497279</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01118310176795365</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1005301314816431</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.4231111987577658</v>
       </c>
       <c r="AV7" t="n">
         <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>0.031711669508504</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01300147778966147</v>
+        <v>0.1277890467114842</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.02308754587782356</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.03521620584478803</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.05429963440443489</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.1518408726939688</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.03174565030907695</v>
+        <v>-0.09177743244540326</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0163765932163829</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.02309478618791095</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.117803487947492</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.06496233133081793</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.04161196176959618</v>
+        <v>0.1911574122023108</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.01033027584765632</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.06766709053490669</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.152951210823048</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.01567412819619261</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.005104917127217015</v>
+        <v>0.07107637473921107</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.01613210033304135</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.04132076530709395</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.1076250023366904</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>-0.002546727346841302</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0130966745204434</v>
+        <v>-0.01921448332050094</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.01186567409579924</v>
+        <v>0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -4119,52 +4119,52 @@
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.003535691774204467</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>0.007675100576740992</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.101975651758632</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.03719475803171431</v>
+        <v>-0.07509767032681681</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.02141101451843345</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.03850278207428146</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.07567149819929372</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.03673323044389321</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.002582530755645892</v>
+        <v>-0.02246260350475777</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0.0067924583511008</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
@@ -4173,52 +4173,52 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.004137384311135832</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.04751250332531083</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.04924193059300066</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.00307888509647456</v>
+        <v>0.03152932617327559</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0.002384589913295679</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.01435145481842766</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.08717996725976607</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.006513801805190297</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.02549857263662135</v>
+        <v>-0.04421012813749089</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.03176097394039213</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,79 +4227,79 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0.0005967591987589434</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.09445239227633277</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.02056613163100841</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01050868175902355</v>
+        <v>0.01783563490712721</v>
       </c>
       <c r="EB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0.001227930197562403</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.06537221689149406</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.09540738897785693</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.01028015155231798</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01144094629189452</v>
+        <v>0.05427200741381138</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.02394826690309512</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.01485381744545809</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.005034602220195861</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0.001329601286454684</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.04413051486535922</v>
+        <v>0.03568744617016151</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.007521254362471944</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
@@ -4308,270 +4308,270 @@
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.03527435446912139</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.0757012908168028</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0.008129331056488252</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.0009737419251858071</v>
+        <v>0.01058015164925317</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0.006301946131496893</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
         <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.04592328857427555</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.0621843637565723</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>-0.01226630649575794</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.03820922741757998</v>
+        <v>0.03044497742703797</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.007344111998076179</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.01147951625932806</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.05352508597917321</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.00328797511613314</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.007647253111318984</v>
+        <v>-0.08749793075539372</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0.001898341924215805</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.03991223425437056</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.07371485920039135</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.1389381326179158</v>
       </c>
       <c r="GC7" t="n">
         <v>-0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.01935476923045552</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3073820071410008</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.298155523377247</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1844608181752016</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.110238521006263</v>
+        <v>-0.06206106127838192</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.1852685994213397</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3052658810459844</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.2403770050812128</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1645776702045799</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.04817518797444884</v>
+        <v>-0.02684878583510969</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.1533724520812653</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0275877057395166</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.04534761802832529</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.04826617217041478</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1367637298629597</v>
+        <v>-0.05704212528152127</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.009080729783203302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01152725526521852</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>-0.002369820883845891</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.005974558808680614</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0584113461116112</v>
+        <v>0.01261164614090778</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.009821091536059302</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.08030808580655178</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.05604790590957734</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.04290857095590565</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.03143058891413671</v>
+        <v>-0.02078031133041097</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.06052421966412333</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.182101897067287</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.2357585318077677</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.1435821673195163</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.008898825632824826</v>
+        <v>-0.05706086183833493</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.1223579223620336</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.04137080624523442</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.06909923009570129</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.06102333341132607</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.1050544084371796</v>
+        <v>-0.04512942638784316</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.06534830866512532</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,49 +4607,49 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.01288468427862971</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.07614411377211143</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.08120794290693384</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1327918430158184</v>
+        <v>0.02063650787853983</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.02623304052392049</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1636956395701454</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.1164263481080725</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.0742669739224087</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.03121776997949997</v>
+        <v>-0.04215525822093379</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.04603495067738177</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4658,25 +4658,25 @@
         <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.0853816032738314</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.05865819807587217</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.05319491565875221</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.0005464554668203752</v>
+        <v>-0.005931720797635378</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.05929562418760954</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
@@ -4688,49 +4688,49 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.01482599018759508</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.005846157274173099</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.0181747312598361</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
         <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.05417422348531024</v>
+        <v>-0.005148199158540638</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.04115847977149757</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.07690196970971999</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.05087568002114418</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0531836167489244</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.03782394496413836</v>
+        <v>-0.003958338450590107</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.06290063068607926</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4742,130 +4742,130 @@
         <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0.03054346218260091</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.05894932196555932</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.03124392563653301</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.008204837399999726</v>
+        <v>0.06110187667520923</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.003852959871399113</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL8" t="n">
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.002710026110593829</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.02472740377580921</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.044781439521155</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.04756136565730675</v>
+        <v>0.0109420766716275</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.004256356648301668</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.008319832223470731</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.05993310427873304</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.0006065992145423503</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
         <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.02950458856500481</v>
+        <v>0.02922556145151545</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0.03399772431423871</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.1347687129269136</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.04709008219734419</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.06691649810182629</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.003326486037892186</v>
+        <v>0.008803377080850687</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.06204987796296912</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.05241038779525725</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.03149441098002691</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.04117590765176452</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0.02320581559349107</v>
+        <v>-0.0257753046145599</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>-0.03196885046123576</v>
       </c>
       <c r="EU8" t="n">
         <v>-0</v>
@@ -4874,25 +4874,25 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.07927317988391566</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.05030630232549475</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.04759676800074052</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.02560649325518456</v>
+        <v>-0.004381448937220327</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.06127341526316506</v>
       </c>
       <c r="FD8" t="n">
         <v>-0</v>
@@ -4904,79 +4904,79 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.05423565799172439</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.02137113376786219</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0573916932264428</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.04055428447683789</v>
+        <v>-0.000121318485645493</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.03184715723934108</v>
       </c>
       <c r="FM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.003518562463233706</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>0.005951446581302453</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.02711262875607156</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.03692577120779462</v>
+        <v>-0.0428805526364039</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.0340957589019014</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.02847496768104804</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>0.007052604381150964</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.03376025706459525</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>-0.02205001004132928</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
@@ -4987,22 +4987,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2541094708470287</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.1517739155895729</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1293915924381475</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04844902948665653</v>
+        <v>-0.04861522990302251</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.1126526447279271</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5011,136 +5011,136 @@
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2455105422311563</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1350754075090925</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.09811038154009571</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.05652867513481467</v>
+        <v>-0.03508759240094478</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0.07855094673226355</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01238262448982657</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.01433379881775891</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.0286884193185552</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.0869312582060156</v>
+        <v>-0.01455705370740886</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.02324055623213817</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01083463688641759</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>-0.01686803553471301</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.01057232768083116</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
         <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03473560941308918</v>
+        <v>0.01350250803941484</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>-0.001617086878557437</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.05058645078065684</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.01720789039650837</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.01575929676468949</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.0292387665491342</v>
+        <v>-0.02270279634494534</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>-0.01105007190224198</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1333586977435884</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.120994041971936</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.09178526047002522</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.003907279072071943</v>
+        <v>-0.03460643722679353</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.04245615848365781</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
@@ -5149,238 +5149,238 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0413637380117285</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.0457818576645847</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.03904491816873806</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.05216239248993323</v>
+        <v>-0.03968324703385522</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.06762148481346751</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.01096167314326401</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.04817137729403159</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.05122153777223652</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.08624167035850745</v>
+        <v>0.02164728268419</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.02456503844475974</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1156691031319919</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.05802326120663533</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0.01782035543230193</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0231193080139687</v>
+        <v>-0.00549449395626839</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>-0.007497948843167415</v>
       </c>
       <c r="CA9" t="n">
         <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.06640496230633873</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.02710216064061249</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.03451228681575089</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.003215841283828637</v>
+        <v>0.002883438412489826</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.02899730859326392</v>
       </c>
       <c r="CJ9" t="n">
         <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.008688818508696345</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.01969949111576472</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.01995089260928976</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.06469991349460305</v>
+        <v>0.008581365340144288</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.01866781142393886</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.05868871197573406</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.01999108563811709</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.03692938286177942</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.02074563897889197</v>
+        <v>0.005400182336710682</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.02948445110886235</v>
       </c>
       <c r="DB9" t="n">
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.02580622041233175</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.03191763648372965</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.02184852533621334</v>
+        <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.01642346375088118</v>
+        <v>0.04147238320620589</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>-0.005917143672262027</v>
       </c>
       <c r="DK9" t="n">
         <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.004723094549434937</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.01137114856477892</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.01192713927640915</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0310628522940001</v>
+        <v>0.00833401786074117</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>-0.01140950982976171</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
         <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0.01000054028961409</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.04512858273684784</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0.01158537705426172</v>
+        <v>-0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.0144652914102712</v>
+        <v>0.02088367386711002</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0.007675615296668074</v>
       </c>
       <c r="EC9" t="n">
         <v>-0</v>
@@ -5392,49 +5392,49 @@
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.1014605192522095</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.02749297540612856</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0365346056326688</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.002053351141816224</v>
+        <v>-0.005796075757422661</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.0346602825901107</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.04399415081090419</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.003617876034851138</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.03617380144366449</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0.01069999067407314</v>
+        <v>0.01596740373640434</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0.0125587331836401</v>
       </c>
       <c r="EU9" t="n">
         <v>-0</v>
@@ -5443,97 +5443,97 @@
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.06068082268232017</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.02085266260591721</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.03225161635360482</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.01060987744182471</v>
+        <v>0.009411074163093605</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0.0351260081730937</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.03522713466420367</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.02431696723494228</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.02995460322516201</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02587699587361926</v>
+        <v>0.004578963124353846</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>0.01779031579575959</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.001178193799444306</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.008326910204402049</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.01629316691099601</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.03516166039897388</v>
+        <v>-0.02636988253532794</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.00827738434088381</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.02812295661808811</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.00382869088613016</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0.007396459592051488</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
         <v>-0</v>
@@ -5542,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.01297539771010067</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
         <v>-0</v>
@@ -5556,106 +5556,106 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.7742011363545821</v>
+        <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.5706246715725708</v>
       </c>
       <c r="C10" t="n">
         <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0.3187756063171609</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.362988196705996</v>
+        <v>0.05215541092426699</v>
       </c>
       <c r="F10" t="n">
         <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7728423385507984</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.5962804199298138</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.3857571640737584</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0.3385814277128879</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.2436735188360463</v>
+        <v>-0.0104357255454788</v>
       </c>
       <c r="O10" t="n">
         <v>-0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4545792285654606</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1829510991420311</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0.132844515621456</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.07548170601269155</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.0989124563211858</v>
+        <v>0.1001660871006488</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.3161974081176884</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA10" t="n">
         <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1996219055089823</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0.1608354579320231</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>-0.06790214133515203</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1980455810270583</v>
+        <v>0.03529300547267249</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.08474240186388582</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>-0</v>
@@ -5664,25 +5664,25 @@
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.1299008563801629</v>
+        <v>-0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.09698693161024634</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0.07661069873253433</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.03031383931214796</v>
+        <v>0.1481833273687627</v>
       </c>
       <c r="AP10" t="n">
         <v>-0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001125673321977106</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
         <v>-0</v>
@@ -5691,52 +5691,52 @@
         <v>-0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.6303026051653864</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>-0.5352534342577875</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>0.2378292021294334</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.4902559032386563</v>
+        <v>0.1350315533034948</v>
       </c>
       <c r="AY10" t="n">
         <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.09164709468461645</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.2351531431161584</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.04956950639722306</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0.005180354388690742</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.04879158910621578</v>
+        <v>0.127311007127852</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.3959131055651577</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
         <v>-0</v>
@@ -5745,79 +5745,79 @@
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.1910013260594329</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>-0.05350882629718057</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0.08999910112682026</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.1200434851706455</v>
+        <v>-0.1707330815733983</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.04258676500274317</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
         <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.4270193883789226</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>-0.1472216603928065</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>0.1419100379096563</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.1453244771484274</v>
+        <v>0.05369959713759118</v>
       </c>
       <c r="BZ10" t="n">
         <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.1568164557672968</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
         <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.2142636336676056</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>0.1140798690444197</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0.03606380300362672</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02601982504783287</v>
+        <v>0.05168671064959512</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.1383903364591836</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>-0</v>
@@ -5826,52 +5826,52 @@
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.2738726753583639</v>
+        <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.09060980826567323</v>
       </c>
       <c r="CO10" t="n">
         <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>0.1191178597500975</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.3845728432459687</v>
+        <v>0.05616965731260361</v>
       </c>
       <c r="CR10" t="n">
         <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.2033508943193181</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
         <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.2344445916367989</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>0.1317999521744691</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>-0.07129231610656096</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.1455445807699583</v>
+        <v>0.0379958548241271</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.1428231277429327</v>
+        <v>-0</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -5880,106 +5880,106 @@
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0277534891502784</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>0.0109352028121371</v>
       </c>
       <c r="DG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0.01130368195361407</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.02241480289310439</v>
+        <v>-0.09818593517793399</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.008367503610360016</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.1609147272744133</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.02999530032301195</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>0.1252406333359355</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.09751152577715537</v>
+        <v>0.08153276942027049</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.118473922929157</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.270212526438935</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.1579297165819579</v>
       </c>
       <c r="DY10" t="n">
         <v>-0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>0.00656569636797374</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.2072685168790588</v>
+        <v>-0.01613353566779456</v>
       </c>
       <c r="EB10" t="n">
         <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0.105312074208879</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
         <v>0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.1714361971256254</v>
+        <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.04806705536977129</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>-0.1079769520368439</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.09627113621038492</v>
+        <v>-0.006820668916142606</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.01102478583767247</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
         <v>0</v>
@@ -5988,25 +5988,25 @@
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.1052745005977541</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.1736354900792432</v>
       </c>
       <c r="EQ10" t="n">
         <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>0.04035844732804725</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.07888932893338313</v>
+        <v>0.09913394204250914</v>
       </c>
       <c r="ET10" t="n">
         <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.2235131562877346</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
         <v>-0</v>
@@ -6015,25 +6015,25 @@
         <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.2743385377959571</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>0.121948590806715</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0.04971711474863039</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.08802987917407694</v>
+        <v>0.03450605831022793</v>
       </c>
       <c r="FC10" t="n">
         <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.1084242725071402</v>
+        <v>0</v>
       </c>
       <c r="FE10" t="n">
         <v>-0</v>
@@ -6042,70 +6042,70 @@
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0.09157510050650119</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.09290107148814473</v>
       </c>
       <c r="FI10" t="n">
         <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>-0.09514164835308166</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.05155459278635962</v>
+        <v>0.05833306165665017</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0.2207488967658278</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0.07388374595266647</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.02529672178500598</v>
       </c>
       <c r="FR10" t="n">
         <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0.09985519983295854</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.06880376921110767</v>
+        <v>-0.004183057857940621</v>
       </c>
       <c r="FU10" t="n">
         <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.02953478508570778</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.1672225714949465</v>
+        <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.007399995330741199</v>
       </c>
       <c r="GA10" t="n">
         <v>0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0</v>
+        <v>0.1189097780430205</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
@@ -6114,10 +6114,10 @@
         <v>0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.1450274088676958</v>
+        <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
         <v>-0</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N11" t="n">
         <v>-0</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
         <v>-0</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
         <v>-0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
         <v>-0</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX11" t="n">
         <v>-0</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG11" t="n">
         <v>-0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
         <v>-0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY11" t="n">
         <v>-0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
         <v>-0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
         <v>-0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
         <v>-0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
         <v>-0</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
         <v>-0</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
         <v>-0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.1829240012658347</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6706,133 +6706,133 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01551335566277291</v>
+        <v>-0.1283719139014717</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>-0.04502705426087351</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03389084652629358</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08817927364530352</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.113984940696361</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.05232269134278598</v>
+        <v>-0.1197142787959435</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>-0.02684546242397043</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02390751624729916</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08997935105869109</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.03246071399365046</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01228581563517</v>
+        <v>-0.01854596711954459</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.0350581919629134</v>
       </c>
       <c r="Y12" t="n">
-        <v>-4.996557232817865e-05</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01419056265204987</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.03269595470796838</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.005675258806708978</v>
+        <v>0.02172288882983687</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.005178595632390185</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.02401046759719514</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.02663347147335089</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.03326141600217759</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.01491849329047922</v>
+        <v>-0.02343667536253118</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>-0.03068835400738558</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.006228851368221381</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.002129198208192763</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.1514684067812839</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -6841,295 +6841,295 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.03399374906182333</v>
+        <v>-0.05610574894186021</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0.02371592146532917</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01799400888150467</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.08112175204246562</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.03555876810642063</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.05195722114667243</v>
+        <v>-0.06966282110222273</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>-0.01166457448584459</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.02720090232480932</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.008101096231700893</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.07179274158320442</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01972728782068262</v>
+        <v>0.04729761204742182</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0.02917785834003048</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.002992458911046604</v>
+        <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.01323187314497304</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.08478793415477198</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0324442481284188</v>
+        <v>-0.03893853036098986</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>0.03229972794791468</v>
       </c>
       <c r="CA12" t="n">
-        <v>-0.01349602531851435</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.04682912897973998</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.02916945979829338</v>
       </c>
       <c r="CF12" t="n">
         <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.002767801394401644</v>
+        <v>0.02001166747245502</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>0.01658810555566378</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.00145470377667131</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0.007627438822244035</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.01109836573607711</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.024929794609116</v>
+        <v>-0.008031443966080165</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>-0.03056631538903333</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0.001383124000062906</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.03591392212793145</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.01622067631753794</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.001544721074446496</v>
+        <v>0.01567691146812417</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0.02199240146198362</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.007684003973513325</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0.01339418803407875</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.03536507623607122</v>
       </c>
       <c r="DG12" t="n">
         <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0427449337778421</v>
+        <v>0.04563534378137818</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0.003354307469953589</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.01997927277309537</v>
+        <v>0</v>
       </c>
       <c r="DL12" t="n">
         <v>-0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.009838571128850199</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.03060691648139703</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
         <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.01313189022300618</v>
+        <v>0.03597390562026358</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0.03616295272945598</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.008346093633200526</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.01335699286237002</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.01570112277686396</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
         <v>0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.02087790169797121</v>
+        <v>-0.04661972562958131</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0.01990475912311146</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0.0122084926328938</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
         <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.01843760550653267</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.006895922316238825</v>
       </c>
       <c r="EH12" t="n">
         <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.01784299358264507</v>
+        <v>0.0187515651291781</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0.004160143040853005</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.006702534210217929</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0.01821884447110181</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>0.001805782706439358</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
@@ -7138,127 +7138,127 @@
         <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.02339205472517702</v>
+        <v>-0.01671338500626989</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0.04107314947991825</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0.02498186867065311</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0.01398316150798051</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.01329199393964919</v>
       </c>
       <c r="EZ12" t="n">
         <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.003557683603746606</v>
+        <v>0.01422151433630041</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>0.02576750247698913</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.006556552128268282</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0.01465540369944519</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.02682640636682243</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.003256514939668052</v>
+        <v>-0.03859081127150677</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>0.007983269362963324</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.004239914722618069</v>
+        <v>-0</v>
       </c>
       <c r="FN12" t="n">
         <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0.01898526012451688</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.008438347296712957</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
         <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.02215300052566939</v>
+        <v>-0.01392731353707457</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>0.02040919400154603</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.003519199987106553</v>
+        <v>-0</v>
       </c>
       <c r="FW12" t="n">
         <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0005981618478386505</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.03206266536961964</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>-0.01819437699495738</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0.01042240519380053</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
         <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0.02570927029399887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,16 +7266,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.4795651153191581</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1517844851247888</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.1529771120485157</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01902710589593418</v>
+        <v>-0.1268987792104213</v>
       </c>
       <c r="F13" t="n">
         <v>-0</v>
@@ -7287,49 +7287,49 @@
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1941228783569685</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
         <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.341031274811212</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1433391630777768</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-0.1626095738492312</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.104567331593596</v>
+        <v>-0.1956471445525756</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2081946444573214</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.1417379232729527</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.01079936612513337</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.02423914358289279</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01697407956700857</v>
+        <v>0.04758086288654551</v>
       </c>
       <c r="X13" t="n">
         <v>-0</v>
@@ -7338,187 +7338,187 @@
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.04522112183964551</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.1486253476802301</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.01845684674385406</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-0.06219665194812943</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.02185006922236414</v>
+        <v>-0.01503442428114518</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.08857701170418818</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.02521118813522076</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.01686383312374898</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0.03714872537210029</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.05708746478456949</v>
+        <v>-0.0798248553876872</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.009957927245314075</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.4251063753434963</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.1495700431571756</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.05223720642321417</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.005531067198222433</v>
+        <v>0.1201759665396106</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1260808788700302</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.06263297992817574</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.06447537099502347</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>-0.08605793861645021</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01517549162582787</v>
+        <v>-0.216115264594679</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0.01974145194795321</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.1819722555717474</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.04382648465437648</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0</v>
+        <v>0.04882037029310953</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.05235928642703629</v>
+        <v>0.1162433887670816</v>
       </c>
       <c r="BQ13" t="n">
         <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.04311497351378982</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.2275236402350448</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.0321060167651273</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>0.03951386362269742</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.0008940564805219182</v>
+        <v>0.05120169755981124</v>
       </c>
       <c r="BZ13" t="n">
         <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1034419555966748</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.08375815196614528</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.04032113858288032</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0</v>
+        <v>0.005956518229861109</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01375039063683514</v>
+        <v>0.006025072541400497</v>
       </c>
       <c r="CI13" t="n">
         <v>0</v>
@@ -7527,52 +7527,52 @@
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.02724775941435815</v>
+        <v>-0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.1029585137820613</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.01444613148368183</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0</v>
+        <v>-0.1233054632151755</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.001757865531714039</v>
+        <v>-0.09274895826635121</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.05311261895459384</v>
+        <v>-0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.05385781666778221</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.02532927643089148</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0</v>
+        <v>0.03158898384576402</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.003337145656403083</v>
+        <v>-0.004901155893951134</v>
       </c>
       <c r="DA13" t="n">
         <v>-0</v>
@@ -7581,28 +7581,28 @@
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.03695571131729238</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.08117667398080412</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.02864077557584857</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0</v>
+        <v>-0.0005717402072404344</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01018491797697882</v>
+        <v>0.02306993971436003</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK13" t="n">
         <v>-0</v>
@@ -7611,49 +7611,49 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.03812059665976375</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.07488767241930343</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.01510968612025235</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>-0.06654675688611755</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.03500506700984139</v>
+        <v>-0.007078702451923352</v>
       </c>
       <c r="DS13" t="n">
         <v>-0</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
         <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.06663289042127918</v>
+        <v>-0</v>
       </c>
       <c r="DW13" t="n">
         <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>0.04396684647622225</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.01373080206480105</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>-0.03788225619744454</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.003522530961542977</v>
+        <v>-0.0510579698227704</v>
       </c>
       <c r="EB13" t="n">
         <v>0</v>
@@ -7662,25 +7662,25 @@
         <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.01218915829189325</v>
+        <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.02867059293885357</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.02860510040165215</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>0.06589165377074194</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.05043499531628513</v>
+        <v>0.06726729827058191</v>
       </c>
       <c r="EK13" t="n">
         <v>0</v>
@@ -7689,25 +7689,25 @@
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.02468799538060048</v>
+        <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.0568650862688481</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.04032655277323985</v>
+        <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0</v>
+        <v>-0.06347514421775294</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.006418998917818277</v>
+        <v>-0.008766990974300656</v>
       </c>
       <c r="ET13" t="n">
         <v>-0</v>
@@ -7716,55 +7716,55 @@
         <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.06981721578902692</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0</v>
+        <v>-0.06261309896965866</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.03086492966601345</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0</v>
+        <v>0.02194651345258754</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01582494282364705</v>
+        <v>0.01525298015115072</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.05033084848421292</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>0.05002456524392598</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.05668744214155338</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0</v>
+        <v>0.05896961693994668</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.05251668947784442</v>
+        <v>-0.05174648615924526</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
@@ -7773,61 +7773,61 @@
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0.04552274936632995</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.02747275430736851</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.03853730558220061</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0</v>
+        <v>-0.02734220972481204</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.01597409382022764</v>
+        <v>0.02335604045352977</v>
       </c>
       <c r="FU13" t="n">
         <v>-0</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.008444623748931146</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.02139667401806706</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.02004599278119461</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0.0451821983446661</v>
       </c>
       <c r="GC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD13" t="n">
         <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0.03509171543321755</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
